--- a/Data_processed/industry/electronics.xlsx
+++ b/Data_processed/industry/electronics.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/industry/electronics.xlsx
+++ b/Data_processed/industry/electronics.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon MJ</t>
+          <t>Carbon kg-CO2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/Data_processed/industry/electronics.xlsx
+++ b/Data_processed/industry/electronics.xlsx
@@ -134,6 +134,51 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,37 +481,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Total MJ</t>
+          <t>carbon (kg CO2 eq)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon kg-CO2</t>
+          <t>ced (MJ)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CED MJ</t>
+          <t>climate change (kg CO2 eq)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>region</t>
         </is>
       </c>
     </row>
@@ -487,13 +532,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.02869936917635082</v>
+        <v>0.05517737733333333</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05517737733333333</v>
+        <v>0.52910956</v>
       </c>
       <c r="F2" t="n">
-        <v>0.52910956</v>
+        <v>1.5384917e-06</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -518,13 +563,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.182818189328</v>
+        <v>0.1791537466666667</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1791537466666667</v>
+        <v>3.2512784</v>
       </c>
       <c r="F3" t="n">
-        <v>3.2512784</v>
+        <v>4.9952819e-06</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -549,13 +594,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>172.803022759906</v>
+        <v>954.6141333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>954.6141333333333</v>
+        <v>14031.106</v>
       </c>
       <c r="F4" t="n">
-        <v>14031.106</v>
+        <v>0.026617176</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -580,13 +625,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>85.57895504250597</v>
+        <v>438.1869266666666</v>
       </c>
       <c r="E5" t="n">
-        <v>438.1869266666666</v>
+        <v>6379.2934</v>
       </c>
       <c r="F5" t="n">
-        <v>6379.2934</v>
+        <v>0.012217814</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,13 +656,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.115098594957571</v>
+        <v>0.15117088</v>
       </c>
       <c r="E6" t="n">
-        <v>0.15117088</v>
+        <v>3.7461084</v>
       </c>
       <c r="F6" t="n">
-        <v>3.7461084</v>
+        <v>4.2150453e-06</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -642,13 +687,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.0269186970955</v>
+        <v>3.184314533333334</v>
       </c>
       <c r="E7" t="n">
-        <v>3.184314533333334</v>
+        <v>37.029248</v>
       </c>
       <c r="F7" t="n">
-        <v>37.029248</v>
+        <v>8.8787139e-05</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -673,13 +718,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>57.11304929382265</v>
+        <v>326.4253266666667</v>
       </c>
       <c r="E8" t="n">
-        <v>326.4253266666667</v>
+        <v>4821.4268</v>
       </c>
       <c r="F8" t="n">
-        <v>4821.4268</v>
+        <v>0.0091016043</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -704,13 +749,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.55482783596929</v>
+        <v>0.8462718666666668</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8462718666666668</v>
+        <v>15.776121</v>
       </c>
       <c r="F9" t="n">
-        <v>15.776121</v>
+        <v>2.3596305e-05</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,13 +780,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.4706118929617</v>
+        <v>1.953059066666667</v>
       </c>
       <c r="E10" t="n">
-        <v>1.953059066666667</v>
+        <v>18.430519</v>
       </c>
       <c r="F10" t="n">
-        <v>18.430519</v>
+        <v>5.4456469e-05</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -766,13 +811,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>33.49041663069</v>
+        <v>85.22702666666666</v>
       </c>
       <c r="E11" t="n">
-        <v>85.22702666666666</v>
+        <v>1091.9692</v>
       </c>
       <c r="F11" t="n">
-        <v>1091.9692</v>
+        <v>0.0023763556</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -797,13 +842,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.8607790909</v>
+        <v>8.864813999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>8.864813999999999</v>
+        <v>117.56442</v>
       </c>
       <c r="F12" t="n">
-        <v>117.56442</v>
+        <v>0.00024717453</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -828,13 +873,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10.55054841922044</v>
+        <v>15.50034</v>
       </c>
       <c r="E13" t="n">
-        <v>15.50034</v>
+        <v>185.57011</v>
       </c>
       <c r="F13" t="n">
-        <v>185.57011</v>
+        <v>0.0004321906</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -859,13 +904,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.451979530094</v>
+        <v>2.688615333333333</v>
       </c>
       <c r="E14" t="n">
-        <v>2.688615333333333</v>
+        <v>39.836747</v>
       </c>
       <c r="F14" t="n">
-        <v>39.836747</v>
+        <v>7.496572999999999e-05</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -890,13 +935,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.2850749552419999</v>
+        <v>0.213</v>
       </c>
       <c r="E15" t="n">
-        <v>0.213</v>
+        <v>3.462316</v>
       </c>
       <c r="F15" t="n">
-        <v>3.462316</v>
+        <v>5.9390052e-06</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -921,13 +966,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.8981218276999999</v>
+        <v>0.41</v>
       </c>
       <c r="E16" t="n">
-        <v>0.41</v>
+        <v>6.1225632</v>
       </c>
       <c r="F16" t="n">
-        <v>6.1225632</v>
+        <v>1.1431888e-05</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -952,13 +997,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>24.83400859141</v>
+        <v>53.885328</v>
       </c>
       <c r="E17" t="n">
-        <v>53.885328</v>
+        <v>798.4095600000001</v>
       </c>
       <c r="F17" t="n">
-        <v>798.4095600000001</v>
+        <v>0.0015024659</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -983,13 +1028,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>17.96058241303912</v>
+        <v>7.092528</v>
       </c>
       <c r="E18" t="n">
-        <v>7.092528</v>
+        <v>21.110651</v>
       </c>
       <c r="F18" t="n">
-        <v>21.110651</v>
+        <v>0.0001977585</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1014,13 +1059,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>55.98525638663605</v>
+        <v>24.01396866666667</v>
       </c>
       <c r="E19" t="n">
-        <v>24.01396866666667</v>
+        <v>41.557433</v>
       </c>
       <c r="F19" t="n">
-        <v>41.557433</v>
+        <v>0.00066957317</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1045,13 +1090,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>17.2190313061504</v>
+        <v>6.844884000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>6.844884000000001</v>
+        <v>21.579965</v>
       </c>
       <c r="F20" t="n">
-        <v>21.579965</v>
+        <v>0.00019085352</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1076,13 +1121,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>18.07310521626</v>
+        <v>60.76753466666666</v>
       </c>
       <c r="E21" t="n">
-        <v>60.76753466666666</v>
+        <v>856.94618</v>
       </c>
       <c r="F21" t="n">
-        <v>856.94618</v>
+        <v>0.0016943601</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1107,13 +1152,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.2418843351461901</v>
+        <v>1.4067918</v>
       </c>
       <c r="E22" t="n">
-        <v>1.4067918</v>
+        <v>12.031736</v>
       </c>
       <c r="F22" t="n">
-        <v>12.031736</v>
+        <v>3.9225088e-05</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1138,13 +1183,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.2268843351461901</v>
+        <v>1.3067918</v>
       </c>
       <c r="E23" t="n">
-        <v>1.3067918</v>
+        <v>12.031736</v>
       </c>
       <c r="F23" t="n">
-        <v>12.031736</v>
+        <v>3.6436822e-05</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1169,13 +1214,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.2450417059361901</v>
+        <v>1.415856533333334</v>
       </c>
       <c r="E24" t="n">
-        <v>1.415856533333334</v>
+        <v>12.73706</v>
       </c>
       <c r="F24" t="n">
-        <v>12.73706</v>
+        <v>3.9477836e-05</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1200,13 +1245,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.2757707831061901</v>
+        <v>1.593752133333334</v>
       </c>
       <c r="E25" t="n">
-        <v>1.593752133333334</v>
+        <v>14.324038</v>
       </c>
       <c r="F25" t="n">
-        <v>14.324038</v>
+        <v>4.4438038e-05</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1231,13 +1276,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.3676721648161901</v>
+        <v>2.133023533333333</v>
       </c>
       <c r="E26" t="n">
-        <v>2.133023533333333</v>
+        <v>18.644144</v>
       </c>
       <c r="F26" t="n">
-        <v>18.644144</v>
+        <v>5.9474355e-05</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1262,13 +1307,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.3808155767861901</v>
+        <v>2.190685266666667</v>
       </c>
       <c r="E27" t="n">
-        <v>2.190685266666667</v>
+        <v>20.407453</v>
       </c>
       <c r="F27" t="n">
-        <v>20.407453</v>
+        <v>6.108211899999999e-05</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1293,13 +1338,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.4208593953661901</v>
+        <v>2.406710333333333</v>
       </c>
       <c r="E28" t="n">
-        <v>2.406710333333333</v>
+        <v>23.405078</v>
       </c>
       <c r="F28" t="n">
-        <v>23.405078</v>
+        <v>6.710546999999999e-05</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1324,13 +1369,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.4564032129661901</v>
+        <v>2.5927354</v>
       </c>
       <c r="E29" t="n">
-        <v>2.5927354</v>
+        <v>26.402703</v>
       </c>
       <c r="F29" t="n">
-        <v>26.402703</v>
+        <v>7.229234199999999e-05</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1355,13 +1400,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>7.0842973919659</v>
+        <v>10.02228266666667</v>
       </c>
       <c r="E30" t="n">
-        <v>10.02228266666667</v>
+        <v>131.82671</v>
       </c>
       <c r="F30" t="n">
-        <v>131.82671</v>
+        <v>0.00027944783</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1386,13 +1431,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>39.1183423710649</v>
+        <v>30.71194</v>
       </c>
       <c r="E31" t="n">
-        <v>30.71194</v>
+        <v>138.8883</v>
       </c>
       <c r="F31" t="n">
-        <v>138.8883</v>
+        <v>0.00085633037</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1417,13 +1462,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>80.10928430617929</v>
+        <v>64.788954</v>
       </c>
       <c r="E32" t="n">
-        <v>64.788954</v>
+        <v>229.19117</v>
       </c>
       <c r="F32" t="n">
-        <v>229.19117</v>
+        <v>0.0018064879</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1448,13 +1493,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6.5259790880398</v>
+        <v>5.3832762</v>
       </c>
       <c r="E33" t="n">
-        <v>5.3832762</v>
+        <v>44.399003</v>
       </c>
       <c r="F33" t="n">
-        <v>44.399003</v>
+        <v>0.00015010002</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1479,13 +1524,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3.2760337873313</v>
+        <v>3.832836066666667</v>
       </c>
       <c r="E34" t="n">
-        <v>3.832836066666667</v>
+        <v>42.49613</v>
       </c>
       <c r="F34" t="n">
-        <v>42.49613</v>
+        <v>0.00010686964</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1510,13 +1555,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>41.13846773116281</v>
+        <v>42.26414933333334</v>
       </c>
       <c r="E35" t="n">
-        <v>42.26414933333334</v>
+        <v>251.23267</v>
       </c>
       <c r="F35" t="n">
-        <v>251.23267</v>
+        <v>0.0011784366</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1541,13 +1586,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.033022401071</v>
+        <v>0.1684665933333333</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1684665933333333</v>
+        <v>3.0417077</v>
       </c>
       <c r="F36" t="n">
-        <v>3.0417077</v>
+        <v>4.6972956e-06</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1572,13 +1617,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.6700197268</v>
+        <v>3.418162733333334</v>
       </c>
       <c r="E37" t="n">
-        <v>3.418162733333334</v>
+        <v>61.715809</v>
       </c>
       <c r="F37" t="n">
-        <v>61.715809</v>
+        <v>9.530744599999999e-05</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1588,5 +1633,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>